--- a/serverxlsx/goods.xlsx
+++ b/serverxlsx/goods.xlsx
@@ -821,7 +821,7 @@
   <dimension ref="A1:BC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
